--- a/test_sheet.xlsx
+++ b/test_sheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10511"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A63A46-83B5-F041-9197-475308C80183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E4A68A-2D92-C846-8FD3-6E9312C58270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3440" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="105">
   <si>
     <t>Groceries</t>
   </si>
@@ -487,7 +487,24 @@
 }</t>
   </si>
   <si>
-    <t>1. postman 등을 통해 직접적으로 바꾸지 못하게 변경 시도시 token을 받아와야합니다</t>
+    <t>1. postman 등을 통해 직접적으로 바꾸지 못하게 변경 시도시 Verify 성공시 임시 토큰 등 인증서를 받아와야합니다
+2. 새로운 비밀번호 설정시에도 validation을 확인해야합니다.</t>
+  </si>
+  <si>
+    <t>tmp_token</t>
+  </si>
+  <si>
+    <t>{
+ "userId": "010-3087-0939",
+ "newPassword": "585138",
+ "tmpToken": "qweqwr12345r"
+}</t>
+  </si>
+  <si>
+    <t>(200)
+{
+ "message": "비밀번호가 성공적으로 재설정되었습니다."
+}</t>
   </si>
 </sst>
 </file>
@@ -1623,8 +1640,8 @@
   </sheetPr>
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C12" zoomScale="106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C5" zoomScale="106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2441,9 +2458,15 @@
       <c r="G31" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="H31" s="67"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
+      <c r="H31" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="I31" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="J31" s="69" t="s">
+        <v>104</v>
+      </c>
       <c r="K31" s="66" t="s">
         <v>91</v>
       </c>

--- a/test_sheet.xlsx
+++ b/test_sheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10511"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E4A68A-2D92-C846-8FD3-6E9312C58270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC13ABD-58D5-B34B-AC9E-4E21C4F0B8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3440" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="110">
   <si>
     <t>Groceries</t>
   </si>
@@ -505,6 +505,21 @@
 {
  "message": "비밀번호가 성공적으로 재설정되었습니다."
 }</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>위시리스트 하트 버튼 눌러 추가하기</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>사용자 선택 색상 테스트</t>
   </si>
 </sst>
 </file>
@@ -1640,8 +1655,8 @@
   </sheetPr>
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C5" zoomScale="106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1664,7 +1679,7 @@
     <col min="19" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -1797,7 +1812,7 @@
       <c r="M8" s="17"/>
       <c r="N8" s="18"/>
     </row>
-    <row r="9" spans="1:18" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="37"/>
       <c r="C9" s="40"/>
       <c r="D9" s="39"/>
@@ -1812,7 +1827,7 @@
       <c r="M9" s="17"/>
       <c r="N9" s="18"/>
     </row>
-    <row r="10" spans="1:18" s="6" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" s="6" customFormat="1" ht="65" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21"/>
       <c r="B10" s="42"/>
       <c r="C10" s="43" t="s">
@@ -1852,7 +1867,7 @@
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
     </row>
-    <row r="11" spans="1:18" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" ht="65" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="49"/>
       <c r="C11" s="58">
@@ -1883,7 +1898,7 @@
       </c>
       <c r="L11" s="66"/>
     </row>
-    <row r="12" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="48">
         <v>60</v>
@@ -1915,7 +1930,7 @@
       </c>
       <c r="L12" s="66"/>
     </row>
-    <row r="13" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="48">
         <v>45</v>
@@ -1943,7 +1958,7 @@
       </c>
       <c r="L13" s="66"/>
     </row>
-    <row r="14" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="48">
         <v>40</v>
@@ -1971,7 +1986,7 @@
       </c>
       <c r="L14" s="66"/>
     </row>
-    <row r="15" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="48">
         <v>35</v>
@@ -2001,7 +2016,7 @@
       </c>
       <c r="L15" s="66"/>
     </row>
-    <row r="16" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="48">
         <v>30</v>
@@ -2033,7 +2048,7 @@
       </c>
       <c r="L16" s="66"/>
     </row>
-    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="48">
         <v>25</v>
@@ -2065,7 +2080,7 @@
       </c>
       <c r="L17" s="66"/>
     </row>
-    <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="48">
         <v>20</v>
@@ -2093,7 +2108,7 @@
       </c>
       <c r="L18" s="66"/>
     </row>
-    <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="48">
         <v>15</v>
@@ -2121,7 +2136,7 @@
       </c>
       <c r="L19" s="66"/>
     </row>
-    <row r="20" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="48">
         <v>7</v>
@@ -2151,7 +2166,7 @@
       </c>
       <c r="L20" s="66"/>
     </row>
-    <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="48">
         <v>1</v>
@@ -2181,7 +2196,7 @@
       </c>
       <c r="L21" s="66"/>
     </row>
-    <row r="22" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="48">
         <v>0</v>
@@ -2211,7 +2226,7 @@
       </c>
       <c r="L22" s="66"/>
     </row>
-    <row r="23" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="37"/>
       <c r="C23" s="58">
         <v>45799</v>
@@ -2242,7 +2257,7 @@
       </c>
       <c r="L23" s="66"/>
     </row>
-    <row r="24" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="37"/>
       <c r="C24" s="58">
         <v>45799</v>
@@ -2267,7 +2282,7 @@
       </c>
       <c r="L24" s="66"/>
     </row>
-    <row r="25" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="37"/>
       <c r="C25" s="58">
         <v>45799</v>
@@ -2296,7 +2311,7 @@
       </c>
       <c r="L25" s="66"/>
     </row>
-    <row r="26" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="37"/>
       <c r="C26" s="58">
         <v>45799</v>
@@ -2327,7 +2342,7 @@
       </c>
       <c r="L26" s="66"/>
     </row>
-    <row r="27" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="37"/>
       <c r="C27" s="58">
         <v>45799</v>
@@ -2358,7 +2373,7 @@
       </c>
       <c r="L27" s="66"/>
     </row>
-    <row r="28" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="37"/>
       <c r="C28" s="58">
         <v>45799</v>
@@ -2387,7 +2402,7 @@
       </c>
       <c r="L28" s="66"/>
     </row>
-    <row r="29" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="37"/>
       <c r="C29" s="58">
         <v>45799</v>
@@ -2416,7 +2431,7 @@
       </c>
       <c r="L29" s="66"/>
     </row>
-    <row r="30" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="37"/>
       <c r="C30" s="58">
         <v>45799</v>
@@ -2441,7 +2456,7 @@
       </c>
       <c r="L30" s="66"/>
     </row>
-    <row r="31" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="37"/>
       <c r="C31" s="58">
         <v>45799</v>
@@ -2474,7 +2489,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="37"/>
       <c r="C32" s="58"/>
       <c r="D32" s="59"/>
@@ -2487,26 +2502,40 @@
       <c r="K32" s="66"/>
       <c r="L32" s="66"/>
     </row>
-    <row r="33" spans="2:12" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:12" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="37"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="59"/>
+      <c r="C33" s="58">
+        <v>45800</v>
+      </c>
+      <c r="D33" s="59" t="s">
+        <v>105</v>
+      </c>
       <c r="E33" s="60"/>
       <c r="F33" s="60"/>
-      <c r="G33" s="66"/>
+      <c r="G33" s="66" t="s">
+        <v>106</v>
+      </c>
       <c r="H33" s="67"/>
       <c r="I33" s="66"/>
       <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
+      <c r="K33" s="66" t="s">
+        <v>107</v>
+      </c>
       <c r="L33" s="66"/>
     </row>
     <row r="34" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="37"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="59"/>
+      <c r="C34" s="58">
+        <v>45800</v>
+      </c>
+      <c r="D34" s="59" t="s">
+        <v>108</v>
+      </c>
       <c r="E34" s="60"/>
       <c r="F34" s="60"/>
-      <c r="G34" s="66"/>
+      <c r="G34" s="66" t="s">
+        <v>109</v>
+      </c>
       <c r="H34" s="67"/>
       <c r="I34" s="66"/>
       <c r="J34" s="66"/>
@@ -2569,6 +2598,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -2588,7 +2626,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac37c1753acd5e330d2062ccec26ea66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b340c7101c92c5120abd06486f94548" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2888,16 +2926,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B242A1A-B0C2-4F63-8717-8D6589934AC2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF6856EC-B630-4A78-AE6D-129F66424B44}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2909,7 +2946,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C813877D-5088-45E8-BF36-A3D81ED7A7BA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2930,14 +2967,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B242A1A-B0C2-4F63-8717-8D6589934AC2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>